--- a/Scheme/ADC_DD.xlsx
+++ b/Scheme/ADC_DD.xlsx
@@ -615,10 +615,10 @@
       </c>
       <c r="G5" s="11">
         <f>10*LOG10((G4*G4)/($K$3*0.001))-K4-K5</f>
-        <v>-55.029674602085436</v>
+        <v>-37.029674602085436</v>
       </c>
       <c r="K5" s="1">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>13</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="G7" s="11">
         <f>10*LOG10(((G6/1000)^2)/($K$3*0.001))-K4-K5</f>
-        <v>-151.35927321455944</v>
+        <v>-133.35927321455944</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">

--- a/Scheme/ADC_DD.xlsx
+++ b/Scheme/ADC_DD.xlsx
@@ -433,7 +433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -615,10 +617,10 @@
       </c>
       <c r="G5" s="11">
         <f>10*LOG10((G4*G4)/($K$3*0.001))-K4-K5</f>
-        <v>-37.029674602085436</v>
+        <v>-42.029674602085436</v>
       </c>
       <c r="K5" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>13</v>
@@ -679,7 +681,7 @@
       </c>
       <c r="G7" s="11">
         <f>10*LOG10(((G6/1000)^2)/($K$3*0.001))-K4-K5</f>
-        <v>-133.35927321455944</v>
+        <v>-138.35927321455944</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">

--- a/Scheme/ADC_DD.xlsx
+++ b/Scheme/ADC_DD.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,8 +549,8 @@
         <v>1.5</v>
       </c>
       <c r="K3" s="1">
-        <f>50*4^2</f>
-        <v>800</v>
+        <f>50*2^2</f>
+        <v>200</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>7</v>
@@ -597,27 +597,27 @@
       </c>
       <c r="B5" s="11">
         <f>10*LOG10((B4*B4)/($K$3*0.001))+12</f>
-        <v>13.992150579028189</v>
+        <v>20.012750492307816</v>
       </c>
       <c r="C5" s="11">
         <f>10*LOG10((C4*C4)/($K$3*0.001))</f>
-        <v>1.9921505790281899</v>
+        <v>8.0127504923078146</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" ref="D5" si="1">10*LOG10((D4*D4)/($K$3*0.001))</f>
-        <v>-1.5296746020854348</v>
+        <v>4.4909253111941885</v>
       </c>
       <c r="E5" s="11">
         <f>10*LOG10((E4*E4)/($K$3*0.001))-K4</f>
-        <v>-23.507849420971809</v>
+        <v>-17.487249507692184</v>
       </c>
       <c r="F5" s="11">
         <f>10*LOG10((F4*F4)/($K$3*0.001))-K4</f>
-        <v>-27.029674602085436</v>
+        <v>-21.009074688805811</v>
       </c>
       <c r="G5" s="11">
         <f>10*LOG10((G4*G4)/($K$3*0.001))-K4-K5</f>
-        <v>-42.029674602085436</v>
+        <v>-36.009074688805811</v>
       </c>
       <c r="K5" s="1">
         <v>15</v>
@@ -661,27 +661,27 @@
       </c>
       <c r="B7" s="11">
         <f>10*LOG10(((B6/1000)^2)/($K$3*0.001))+12</f>
-        <v>-82.337448033445796</v>
+        <v>-76.316848120166171</v>
       </c>
       <c r="C7" s="11">
         <f>10*LOG10(((C6/1000)^2)/($K$3*0.001))</f>
-        <v>-94.337448033445796</v>
+        <v>-88.316848120166171</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" ref="D7" si="3">10*LOG10(((D6/1000)^2)/($K$3*0.001))</f>
-        <v>-97.859273214559423</v>
+        <v>-91.838673301279798</v>
       </c>
       <c r="E7" s="11">
         <f>10*LOG10(((E6/1000)^2)/($K$3*0.001))-K4</f>
-        <v>-119.8374480334458</v>
+        <v>-113.81684812016617</v>
       </c>
       <c r="F7" s="11">
         <f>10*LOG10(((F6/1000)^2)/($K$3*0.001))-K4</f>
-        <v>-123.35927321455942</v>
+        <v>-117.3386733012798</v>
       </c>
       <c r="G7" s="11">
         <f>10*LOG10(((G6/1000)^2)/($K$3*0.001))-K4-K5</f>
-        <v>-138.35927321455944</v>
+        <v>-132.33867330127981</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
